--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ngf-Sorcs3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ngf-Sorcs3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ngf</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,43 +519,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.960814666666666</v>
+        <v>0.920265</v>
       </c>
       <c r="H2">
-        <v>8.882444</v>
+        <v>2.760795</v>
       </c>
       <c r="I2">
-        <v>0.2614555410777428</v>
+        <v>0.1759838360772107</v>
       </c>
       <c r="J2">
-        <v>0.2614555410777428</v>
+        <v>0.1759838360772107</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1565826666666667</v>
+        <v>0.03844266666666667</v>
       </c>
       <c r="N2">
-        <v>0.4697480000000001</v>
+        <v>0.115328</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.4636122560124444</v>
+        <v>0.03537744064</v>
       </c>
       <c r="R2">
-        <v>4.172510304112</v>
+        <v>0.31839696576</v>
       </c>
       <c r="S2">
-        <v>0.2614555410777428</v>
+        <v>0.1759838360772107</v>
       </c>
       <c r="T2">
-        <v>0.2614555410777428</v>
+        <v>0.1759838360772107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -605,22 +602,22 @@
         <v>1.779989</v>
       </c>
       <c r="I3">
-        <v>0.05239413691855872</v>
+        <v>0.1134634380297118</v>
       </c>
       <c r="J3">
-        <v>0.05239413691855872</v>
+        <v>0.1134634380297118</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1565826666666667</v>
+        <v>0.03844266666666667</v>
       </c>
       <c r="N3">
-        <v>0.4697480000000001</v>
+        <v>0.115328</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.09290514141911112</v>
+        <v>0.02280917459911111</v>
       </c>
       <c r="R3">
-        <v>0.8361462727720002</v>
+        <v>0.205282571392</v>
       </c>
       <c r="S3">
-        <v>0.05239413691855872</v>
+        <v>0.1134634380297118</v>
       </c>
       <c r="T3">
-        <v>0.05239413691855872</v>
+        <v>0.1134634380297118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +643,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.765557333333334</v>
+        <v>3.715664</v>
       </c>
       <c r="H4">
-        <v>23.296672</v>
+        <v>11.146992</v>
       </c>
       <c r="I4">
-        <v>0.6857396436240636</v>
+        <v>0.7105527258930776</v>
       </c>
       <c r="J4">
-        <v>0.6857396436240636</v>
+        <v>0.7105527258930775</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1565826666666667</v>
+        <v>0.03844266666666667</v>
       </c>
       <c r="N4">
-        <v>0.4697480000000001</v>
+        <v>0.115328</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,78 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.215951675406222</v>
+        <v>0.1428400325973334</v>
       </c>
       <c r="R4">
-        <v>10.943565078656</v>
+        <v>1.285560293376</v>
       </c>
       <c r="S4">
-        <v>0.6857396436240636</v>
+        <v>0.7105527258930776</v>
       </c>
       <c r="T4">
-        <v>0.6857396436240636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.004650666666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.013952</v>
-      </c>
-      <c r="I5">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="J5">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.1565826666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.4697480000000001</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.0007282137884444445</v>
-      </c>
-      <c r="R5">
-        <v>0.006553924096000001</v>
-      </c>
-      <c r="S5">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="T5">
-        <v>0.0004106783796347794</v>
+        <v>0.7105527258930775</v>
       </c>
     </row>
   </sheetData>
